--- a/classfiers/bloated/MLP/bloated-mlp-results.xlsx
+++ b/classfiers/bloated/MLP/bloated-mlp-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3291139240506329</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8363636363636363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9475524475524476</v>
+        <v>0.998868778280543</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7674745345978222</v>
+        <v>0.6744755244755245</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5370528022701936</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4556005625879044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9102781237027813</v>
+        <v>0.9346688605512135</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/MLP/bloated-mlp-results.xlsx
+++ b/classfiers/bloated/MLP/bloated-mlp-results.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.196969696969697</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3291139240506329</v>
+        <v>0.3380281690140846</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998868778280543</v>
+        <v>0.9986431478968792</v>
       </c>
     </row>
     <row r="5">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
       <c r="E6" t="n">
-        <v>0.6744755244755245</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5370528022701936</v>
+        <v>0.5331022085259374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6307692307692307</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4556005625879044</v>
+        <v>0.4308556829863699</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9346688605512135</v>
+        <v>0.9351452962460425</v>
       </c>
     </row>
   </sheetData>
